--- a/results/mp/logistic/home-spam/confidence/84/stop-words-topk-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/home-spam/confidence/84/stop-words-topk-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,132 +43,165 @@
     <t>return</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>stopped</t>
   </si>
   <si>
+    <t>disappointing</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>glasses</t>
+  </si>
+  <si>
     <t>useless</t>
   </si>
   <si>
+    <t>poorly</t>
+  </si>
+  <si>
+    <t>plates</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>filters</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>poorly</t>
-  </si>
-  <si>
-    <t>junk</t>
+    <t>cracked</t>
   </si>
   <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>cracked</t>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>defective</t>
+  </si>
+  <si>
+    <t>unless</t>
+  </si>
+  <si>
+    <t>egg</t>
+  </si>
+  <si>
+    <t>spray</t>
+  </si>
+  <si>
+    <t>send</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>returning</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>months</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>iron</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>broken</t>
   </si>
   <si>
     <t>seal</t>
   </si>
   <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>months</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>spray</t>
+    <t>thick</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>filter</t>
   </si>
   <si>
     <t>grind</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>send</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
     <t>lid</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>filter</t>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>side</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>iron</t>
-  </si>
-  <si>
-    <t>side</t>
+    <t>received</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>machine</t>
   </si>
   <si>
     <t>back</t>
   </si>
   <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>received</t>
-  </si>
-  <si>
     <t>unit</t>
   </si>
   <si>
-    <t>machine</t>
-  </si>
-  <si>
     <t>fl</t>
   </si>
   <si>
+    <t>hold</t>
+  </si>
+  <si>
     <t>work</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>hold</t>
+    <t>way</t>
+  </si>
+  <si>
+    <t>fit</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
@@ -184,12 +217,12 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
@@ -205,13 +238,13 @@
     <t>perfectly</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
     <t>ze</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>salad</t>
   </si>
   <si>
     <t>great</t>
@@ -578,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -586,10 +619,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="J1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -647,38 +680,38 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9380530973451328</v>
+        <v>0.9469026548672567</v>
       </c>
       <c r="C3">
+        <v>107</v>
+      </c>
+      <c r="D3">
+        <v>107</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3">
+        <v>0.828125</v>
+      </c>
+      <c r="L3">
         <v>106</v>
       </c>
-      <c r="D3">
+      <c r="M3">
         <v>106</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3">
-        <v>0.8203125</v>
-      </c>
-      <c r="L3">
-        <v>105</v>
-      </c>
-      <c r="M3">
-        <v>105</v>
-      </c>
       <c r="N3">
         <v>1</v>
       </c>
@@ -689,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -697,13 +730,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.92</v>
+        <v>0.898989898989899</v>
       </c>
       <c r="C4">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="D4">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -715,19 +748,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="K4">
-        <v>0.7526881720430108</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="L4">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="M4">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -739,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -747,13 +780,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9090909090909091</v>
+        <v>0.88</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="D5">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -765,19 +798,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="K5">
-        <v>0.7391304347826086</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="L5">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="M5">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -789,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -797,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8490566037735849</v>
+        <v>0.8679245283018868</v>
       </c>
       <c r="C6">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D6">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -815,19 +848,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="K6">
-        <v>0.7084745762711865</v>
+        <v>0.7016949152542373</v>
       </c>
       <c r="L6">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M6">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -839,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -847,13 +880,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.847457627118644</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -865,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="K7">
-        <v>0.6052631578947368</v>
+        <v>0.5897832817337462</v>
       </c>
       <c r="L7">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="M7">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -889,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -897,13 +930,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0.847457627118644</v>
       </c>
       <c r="C8">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="D8">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -915,10 +948,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="K8">
         <v>0.5021645021645021</v>
@@ -947,13 +980,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7727272727272727</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="C9">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -965,10 +998,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K9">
         <v>0.4805194805194805</v>
@@ -997,13 +1030,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7675675675675676</v>
+        <v>0.8</v>
       </c>
       <c r="C10">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1015,19 +1048,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="K10">
-        <v>0.4210526315789473</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="L10">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="M10">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1039,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1047,13 +1080,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7586206896551724</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1065,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="K11">
-        <v>0.2098765432098765</v>
+        <v>0.2114285714285714</v>
       </c>
       <c r="L11">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="M11">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1089,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>64</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1097,13 +1130,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7115384615384616</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C12">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1115,19 +1148,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="K12">
-        <v>0.2057142857142857</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="L12">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="M12">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1139,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>139</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1147,13 +1180,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7058823529411765</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C13">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D13">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1165,13 +1198,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="K13">
-        <v>0.2054794520547945</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="L13">
         <v>15</v>
@@ -1189,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1197,13 +1230,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7058823529411765</v>
+        <v>0.7513513513513513</v>
       </c>
       <c r="C14">
-        <v>24</v>
+        <v>139</v>
       </c>
       <c r="D14">
-        <v>24</v>
+        <v>139</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1215,19 +1248,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="K14">
-        <v>0.1622489959839357</v>
+        <v>0.158908507223114</v>
       </c>
       <c r="L14">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M14">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1236,10 +1269,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1043</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1247,13 +1280,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7058823529411765</v>
+        <v>0.75</v>
       </c>
       <c r="C15">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D15">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1265,19 +1298,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="K15">
-        <v>0.0547945205479452</v>
+        <v>0.05753424657534247</v>
       </c>
       <c r="L15">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M15">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1289,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1297,13 +1330,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7037037037037037</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C16">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D16">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1315,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1323,7 +1356,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6438356164383562</v>
+        <v>0.6911764705882353</v>
       </c>
       <c r="C17">
         <v>47</v>
@@ -1341,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1349,13 +1382,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6037735849056604</v>
+        <v>0.6712328767123288</v>
       </c>
       <c r="C18">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D18">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1367,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1375,13 +1408,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5943396226415094</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C19">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1393,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1401,13 +1434,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5736434108527132</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C20">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="D20">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1419,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1427,13 +1460,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.562962962962963</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="C21">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="D21">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1445,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1453,13 +1486,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5454545454545454</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="C22">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D22">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1471,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1479,13 +1512,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5211267605633803</v>
+        <v>0.59375</v>
       </c>
       <c r="C23">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D23">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1497,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1505,13 +1538,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="C24">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D24">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1523,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1531,13 +1564,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C25">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1557,13 +1590,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4717948717948718</v>
+        <v>0.5407407407407407</v>
       </c>
       <c r="C26">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D26">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1575,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>103</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1583,13 +1616,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4256756756756757</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C27">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="D27">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1601,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>85</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1609,13 +1642,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.415929203539823</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="C28">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="D28">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1627,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1635,13 +1668,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4111111111111111</v>
+        <v>0.5283018867924528</v>
       </c>
       <c r="C29">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D29">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1653,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1661,13 +1694,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3793103448275862</v>
+        <v>0.5256410256410257</v>
       </c>
       <c r="C30">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D30">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1679,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1687,13 +1720,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3398058252427185</v>
+        <v>0.517948717948718</v>
       </c>
       <c r="C31">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="D31">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1705,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>68</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1713,13 +1746,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3333333333333333</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="C32">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D32">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1731,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1739,13 +1772,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3148148148148148</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C33">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D33">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1757,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1765,13 +1798,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2756410256410257</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C34">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D34">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1783,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>113</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1791,13 +1824,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.223463687150838</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="C35">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D35">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1809,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>139</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1817,13 +1850,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2115384615384615</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="C36">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D36">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1835,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>82</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1843,13 +1876,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2105263157894737</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C37">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D37">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1861,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1869,13 +1902,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1855670103092784</v>
+        <v>0.4318181818181818</v>
       </c>
       <c r="C38">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D38">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1887,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>79</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1895,13 +1928,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.15</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="C39">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D39">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1913,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>85</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1921,13 +1954,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1347708894878706</v>
+        <v>0.4084507042253521</v>
       </c>
       <c r="C40">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D40">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1939,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>321</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1947,13 +1980,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.119047619047619</v>
+        <v>0.3805309734513274</v>
       </c>
       <c r="C41">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D41">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1965,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>111</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1973,13 +2006,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1172413793103448</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C42">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D42">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1991,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>128</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1999,13 +2032,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1047619047619048</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C43">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D43">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2017,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>188</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2025,13 +2058,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="C44">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D44">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2043,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>180</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2051,13 +2084,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.08602150537634409</v>
+        <v>0.2718446601941747</v>
       </c>
       <c r="C45">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D45">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2069,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>170</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2077,13 +2110,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.07142857142857142</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="C46">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D46">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2095,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>273</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2103,13 +2136,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.05084745762711865</v>
+        <v>0.2681564245810056</v>
       </c>
       <c r="C47">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D47">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2121,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>728</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2129,25 +2162,311 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.04625850340136054</v>
+        <v>0.2474226804123711</v>
       </c>
       <c r="C48">
+        <v>24</v>
+      </c>
+      <c r="D48">
+        <v>24</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49">
+        <v>0.217948717948718</v>
+      </c>
+      <c r="C49">
         <v>34</v>
       </c>
-      <c r="D48">
+      <c r="D49">
         <v>34</v>
       </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>701</v>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>0.1973684210526316</v>
+      </c>
+      <c r="C50">
+        <v>15</v>
+      </c>
+      <c r="D50">
+        <v>15</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <v>0.19</v>
+      </c>
+      <c r="C51">
+        <v>19</v>
+      </c>
+      <c r="D51">
+        <v>19</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>0.1310344827586207</v>
+      </c>
+      <c r="C52">
+        <v>19</v>
+      </c>
+      <c r="D52">
+        <v>19</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53">
+        <v>0.123989218328841</v>
+      </c>
+      <c r="C53">
+        <v>46</v>
+      </c>
+      <c r="D53">
+        <v>46</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>0.119205298013245</v>
+      </c>
+      <c r="C54">
+        <v>18</v>
+      </c>
+      <c r="D54">
+        <v>18</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>0.105</v>
+      </c>
+      <c r="C55">
+        <v>21</v>
+      </c>
+      <c r="D55">
+        <v>21</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>0.09047619047619047</v>
+      </c>
+      <c r="C56">
+        <v>19</v>
+      </c>
+      <c r="D56">
+        <v>19</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="C57">
+        <v>21</v>
+      </c>
+      <c r="D57">
+        <v>21</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58">
+        <v>0.05221932114882506</v>
+      </c>
+      <c r="C58">
+        <v>40</v>
+      </c>
+      <c r="D58">
+        <v>41</v>
+      </c>
+      <c r="E58">
+        <v>0.02</v>
+      </c>
+      <c r="F58">
+        <v>0.98</v>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="C59">
+        <v>35</v>
+      </c>
+      <c r="D59">
+        <v>35</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>700</v>
       </c>
     </row>
   </sheetData>
